--- a/xlsx/854.xlsx
+++ b/xlsx/854.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="2160" yWindow="2085" windowWidth="18435" windowHeight="8295"/>
+    <workbookView xWindow="2160" yWindow="2085" windowWidth="18435" windowHeight="8295"/>
   </bookViews>
   <sheets>
     <sheet name="854" sheetId="1" r:id="rId1"/>
